--- a/data/long_dif/P18_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_1-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,34</t>
+          <t>20,48; 32,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,93</t>
+          <t>8,24; 15,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 21,78</t>
+          <t>12,04; 20,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,42; 36,98</t>
+          <t>11,89; 20,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,98</t>
+          <t>29,15; 37,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 28,27</t>
+          <t>13,28; 20,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,25; 33,33</t>
+          <t>19,29; 26,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,84</t>
+          <t>21,19; 30,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,26</t>
+          <t>26,26; 33,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 16,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,95; 22,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 24,22</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>59,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,99; 70,8</t>
+          <t>59,61; 70,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,71; 76,62</t>
+          <t>64,21; 75,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,29; 74,62</t>
+          <t>65,65; 75,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,78; 58,55</t>
+          <t>52,46; 69,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,06; 63,65</t>
+          <t>48,91; 57,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,1; 56,94</t>
+          <t>54,36; 63,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,78; 62,95</t>
+          <t>48,58; 57,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,28; 68,44</t>
+          <t>50,51; 60,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,59; 64,28</t>
+          <t>55,81; 62,81</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61,1; 68,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58,21; 64,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54,04; 63,34</t>
         </is>
       </c>
     </row>
@@ -839,7 +923,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -849,42 +933,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,92</t>
+          <t>6,18; 11,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 22,57</t>
+          <t>13,4; 24,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,07</t>
+          <t>10,74; 17,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,51</t>
+          <t>14,79; 35,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 29,87</t>
+          <t>10,97; 16,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,47; 27,62</t>
+          <t>20,36; 28,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,12</t>
+          <t>21,15; 27,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,31</t>
+          <t>14,78; 22,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 21,87</t>
+          <t>9,39; 13,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 24,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 21,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 26,21</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 27,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 21,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,8; 37,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 29,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,24; 31,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,37; 72,21</t>
+          <t>19,18; 27,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,98; 75,3</t>
+          <t>6,35; 12,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,04; 74,16</t>
+          <t>13,66; 21,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,63; 57,42</t>
+          <t>10,31; 24,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,43; 58,08</t>
+          <t>27,68; 37,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,04; 62,34</t>
+          <t>19,16; 30,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,99; 62,99</t>
+          <t>17,62; 25,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,52; 65,32</t>
+          <t>19,75; 30,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,06; 66,95</t>
+          <t>24,61; 31,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 20,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 22,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 24,54</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>52,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>58,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63,25%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64,41%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,79</t>
+          <t>59,37; 71,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 30,3</t>
+          <t>63,95; 75,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,83</t>
+          <t>63,59; 73,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,35; 19,68</t>
+          <t>66,2; 79,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 27,72</t>
+          <t>45,75; 56,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,79; 24,47</t>
+          <t>47,18; 58,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,42</t>
+          <t>53,1; 62,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,54; 26,12</t>
+          <t>48,24; 59,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,19</t>
+          <t>54,11; 62,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57,28; 65,65</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,61; 66,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>59,73; 68,66</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,89%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 36,73</t>
+          <t>7,8; 16,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 21,48</t>
+          <t>15,5; 27,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 20,61</t>
+          <t>10,69; 17,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,39; 48,82</t>
+          <t>7,61; 15,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,08; 23,64</t>
+          <t>12,87; 22,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,04; 27,56</t>
+          <t>19,09; 27,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,05; 40,55</t>
+          <t>17,04; 24,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 19,29</t>
+          <t>17,01; 26,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 21,3</t>
+          <t>11,46; 17,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 26,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 20,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 19,33</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,35%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,02; 76,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>55,68; 77,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,96; 77,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,69; 58,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,41; 60,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,38; 60,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,6; 63,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,13; 66,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,35; 65,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>32,32%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,8</t>
+          <t>18,04; 37,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,41; 30,85</t>
+          <t>6,64; 23,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,6; 32,36</t>
+          <t>6,73; 19,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,62; 21,15</t>
+          <t>3,95; 17,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,64; 44,07</t>
+          <t>28,31; 46,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,69; 39,39</t>
+          <t>9,09; 24,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,29</t>
+          <t>13,37; 27,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21,33; 34,22</t>
+          <t>29,76; 52,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,17; 32,17</t>
+          <t>25,58; 39,23</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 20,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 20,52</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 32,65</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>55,95%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>58,76%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>57,83%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,51</t>
+          <t>52,21; 74,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,0</t>
+          <t>54,98; 77,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,23</t>
+          <t>55,34; 77,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30,39; 36,28</t>
+          <t>45,21; 83,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,58; 21,78</t>
+          <t>39,16; 57,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,87</t>
+          <t>40,27; 60,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,83; 31,77</t>
+          <t>41,83; 59,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,18</t>
+          <t>34,92; 56,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,27</t>
+          <t>47,58; 64,38</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>49,96; 66,24</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>51,95; 65,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>45,15; 66,06</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>70,49%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>61,69; 69,45</t>
+          <t>4,55; 17,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>66,04; 74,21</t>
+          <t>11,84; 29,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>65,94; 72,47</t>
+          <t>12,0; 33,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>49,47; 55,65</t>
+          <t>8,24; 48,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>52,36; 59,22</t>
+          <t>8,22; 21,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>51,22; 57,11</t>
+          <t>25,69; 44,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>56,22; 61,58</t>
+          <t>22,19; 38,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>60,15; 65,4</t>
+          <t>8,25; 23,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>59,31; 64,17</t>
+          <t>7,8; 17,57</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20,52; 34,69</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 32,49</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 34,21</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,34; 28,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,55; 24,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>17,3; 20,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 28,71</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 13,27</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 19,1</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 18,43</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>30,21; 36,25</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 22,31</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 24,8</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 30,5</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 31,48</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 16,75</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 20,79</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>18,54; 23,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>70,28%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>68,71%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>51,73%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>55,8%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>58,41%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>62,89%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>61,86%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>61,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 68,95</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>66,05; 73,92</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>66,09; 72,75</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>61,74; 73,12</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 54,88</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>52,48; 58,95</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,73; 57,37</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>50,67; 57,96</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>56,07; 60,9</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 65,48</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>59,51; 63,98</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>57,52; 63,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,12%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,53</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 23,21</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 16,93</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 24,43</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 17,89</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 27,8</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 26,29</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 22,13</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 14,18</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 24,56</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 21,08</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 21,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
